--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/B/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/B/15/seed2/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>6.072799999999988</v>
+        <v>5.96399999999999</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>8.991000000000007</v>
+        <v>8.915300000000002</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -788,7 +788,7 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>5.676599999999992</v>
+        <v>5.758699999999993</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
@@ -822,7 +822,7 @@
         <v>-20.86</v>
       </c>
       <c r="B23" t="n">
-        <v>5.618099999999998</v>
+        <v>5.627899999999999</v>
       </c>
       <c r="C23" t="n">
         <v>-10.59</v>
@@ -856,7 +856,7 @@
         <v>-21.66</v>
       </c>
       <c r="B25" t="n">
-        <v>5.869499999999991</v>
+        <v>5.956099999999993</v>
       </c>
       <c r="C25" t="n">
         <v>-14.32</v>
